--- a/data/3 dimensional data concentrations.xlsx
+++ b/data/3 dimensional data concentrations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PyCharm\Blueness\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B91B1A-3A7E-4F5C-9983-CFABA1AD9BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DABF3F-47DC-42C4-B4D0-0A0786E0AE17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{5F9094DF-F55A-40C8-90F6-2BFE46079E26}"/>
   </bookViews>
@@ -516,7 +516,7 @@
   <dimension ref="A1:Y50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
+      <selection activeCell="W58" sqref="W58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4822,8 +4822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922CEEA4-F58C-4635-A45B-A8C7192E89E0}">
   <dimension ref="A1:Y50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R56" sqref="R56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9157,7 +9157,7 @@
   <dimension ref="A1:Y50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA33" sqref="AA33"/>
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13888,8 +13888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52544C2F-8E80-4C85-80EC-15634640F0F5}">
   <dimension ref="A1:Y424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A362" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA362" sqref="AA362"/>
+    <sheetView tabSelected="1" topLeftCell="A385" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA416" sqref="AA416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
